--- a/biology/Médecine/Ethmoïdite/Ethmoïdite.xlsx
+++ b/biology/Médecine/Ethmoïdite/Ethmoïdite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ethmo%C3%AFdite</t>
+          <t>Ethmoïdite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une ethmoïdite est une infection, généralement bactérienne, des cellules aériques de l'ethmoïde.
 Elle survient le plus souvent chez l'enfant, dès 6 mois (le plus souvent entre 2 et 3 ans), à la suite d'une rhinopharyngite.
-Les germes les plus fréquemment en cause sont Staphylococcus aureus, Haemophilus influenzae, Streptococcus pyogenes et Streptococcus pneumoniae[1].
+Les germes les plus fréquemment en cause sont Staphylococcus aureus, Haemophilus influenzae, Streptococcus pyogenes et Streptococcus pneumoniae.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ethmo%C3%AFdite</t>
+          <t>Ethmoïdite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syndrome infectieux : tableau d'une rhinopharyngite, mais sévère, fièvre élevée (39°-40°)
 Céphalées intenses (hurlement de l'enfant)
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ethmo%C3%AFdite</t>
+          <t>Ethmoïdite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Extension orbitaire : exophtalmie, mydriase paralytique, ophtalmoplégie.
 </t>
